--- a/data/georgia_census/kakheti/axmeta/average_wages.xlsx
+++ b/data/georgia_census/kakheti/axmeta/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1AC0E3-C891-4AD9-AD21-C6689D53B35E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA6D6E2B-0DFC-435D-B0F3-BD41EC442E8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC03142-3C2C-4877-BC01-8F122E36212C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A839E08A-57E8-4782-98A1-0878022A1BA9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56BAA4B-D2FD-4A13-96D5-53916838D1CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF49FCC-B1D5-497A-8BEC-205CB36357B0}"/>
 </file>